--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Sooty Albatross_Tristan da Cunha.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Sooty Albatross_Tristan da Cunha.xlsx
@@ -2903,13 +2903,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6E3EAB2-7C26-4A26-B9CF-A73C88A00E76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36054D04-51BB-4634-A7AF-33CAD9EA746C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A84BC5AB-40BB-4313-8310-AE1BF84C9C90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA38F2D8-4E77-4BA3-B2F2-2B4EDE283B2C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FEDDB35-855D-475C-A880-ABC3D0D435B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794144C1-E8C6-4AB4-ACB0-863FC86DE63F}"/>
 </file>